--- a/app/src/main/resources/migration/HAS-DB-나라장터.xlsx
+++ b/app/src/main/resources/migration/HAS-DB-나라장터.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72C830-5279-45DF-B22D-CA88ADAFFD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9723ACAB-1C08-4130-9C8B-7958C0264729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="990" windowWidth="28800" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">migration!$A$1:$AD$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">migration!$B$1:$B$130</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">migration!$A$1:$AG$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="264">
   <si>
     <t>수요기관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대비견적(TE요청)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>동서타운 소규모재건축사업조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -570,10 +566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대비견적(한풍요청)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>영등포1의13구역 도시환경정비사업조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -598,18 +590,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CKP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -673,18 +653,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대우건설</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이웨이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>금오공대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -697,42 +665,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>혜안</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비견적(MS요청)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비견적(혜안요청)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>한양풍동</t>
   </si>
   <si>
-    <t>CKP</t>
-  </si>
-  <si>
-    <t>케이웨이</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
     <t>전라도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>합정주공 835번지 일대 주택재건축정비사업조합</t>
-  </si>
-  <si>
-    <t>JK</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1312,6 +1252,42 @@
       <t>6</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜티이솔루션</t>
+  </si>
+  <si>
+    <t>대비견적(㈜티이솔루션요청)</t>
+  </si>
+  <si>
+    <t>㈜씨케이피풍공학연구소</t>
+  </si>
+  <si>
+    <t>주식회사 케이웨이</t>
+  </si>
+  <si>
+    <t>주식회사 엠에스엔지니어링</t>
+  </si>
+  <si>
+    <t>대비견적(주식회사 엠에스엔지니어링요청)</t>
+  </si>
+  <si>
+    <t>대비견적(주식회사 혜안엔지니어링요청)</t>
+  </si>
+  <si>
+    <t>주식회사 혜안엔지니어링</t>
+  </si>
+  <si>
+    <t>전북대학교산학협력단</t>
+  </si>
+  <si>
+    <t>주식회사 제이케이윈드엔지니어링</t>
+  </si>
+  <si>
+    <t>대비견적(한양풍동실험연구소요청)</t>
+  </si>
+  <si>
+    <t>㈜대우건설</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2074,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA10EB8D-1FD7-4E00-8C0A-B7890FE6B62C}">
   <dimension ref="A1:AG130"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A105" zoomScale="55" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="55" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -2117,13 +2093,13 @@
   <sheetData>
     <row r="1" spans="1:33" ht="50.1" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>0</v>
@@ -2153,67 +2129,67 @@
         <v>2</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N1" s="56" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="59" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="59" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="U1" s="42" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="59" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="X1" s="42" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>27</v>
       </c>
       <c r="Z1" s="59" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AA1" s="42" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AB1" s="41" t="s">
         <v>28</v>
       </c>
       <c r="AC1" s="69" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AD1" s="42" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AE1" s="41" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="64" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="50.1" customHeight="1">
@@ -2271,7 +2247,7 @@
         <v>22062</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>102</v>
@@ -2283,7 +2259,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="8"/>
       <c r="I3" s="24" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="J3" s="3">
         <v>5</v>
@@ -2295,7 +2271,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N3" s="57">
         <v>42000</v>
@@ -2304,7 +2280,7 @@
         <v>2000</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q3" s="60">
         <v>30000</v>
@@ -2313,7 +2289,7 @@
         <v>1428.5714285714287</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="T3" s="60">
         <v>39000</v>
@@ -2322,7 +2298,7 @@
         <v>1857.1428571428571</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="W3" s="60">
         <v>42000</v>
@@ -2331,7 +2307,7 @@
         <v>2000</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="60">
         <v>42000</v>
@@ -2340,7 +2316,7 @@
         <v>2000</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="AC3" s="60">
         <v>44000</v>
@@ -2367,7 +2343,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
@@ -2380,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N4" s="57">
         <v>8181.8181999999997</v>
@@ -2389,7 +2365,7 @@
         <v>1363.6363666666666</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="60">
         <v>8181.8181999999997</v>
@@ -2398,7 +2374,7 @@
         <v>1363.6363666666666</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T4" s="60">
         <v>9000</v>
@@ -2427,10 +2403,10 @@
         <v>21411</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4">
         <v>44615</v>
@@ -2438,10 +2414,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
@@ -2453,7 +2429,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N5" s="57">
         <v>31500</v>
@@ -2462,7 +2438,7 @@
         <v>1852.9411764705883</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="60">
         <v>31500</v>
@@ -2471,7 +2447,7 @@
         <v>1852.9411764705883</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T5" s="60">
         <v>33000</v>
@@ -2527,7 +2503,7 @@
       <c r="T6" s="60"/>
       <c r="U6" s="35"/>
       <c r="V6" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W6" s="60"/>
       <c r="X6" s="17"/>
@@ -2549,7 +2525,7 @@
         <v>21544</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>108</v>
@@ -2560,7 +2536,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
@@ -2573,7 +2549,7 @@
         <v>11</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N7" s="57">
         <v>16500</v>
@@ -2582,7 +2558,7 @@
         <v>1500</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="60">
         <v>16500</v>
@@ -2591,7 +2567,7 @@
         <v>1500</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T7" s="60">
         <v>17500</v>
@@ -2623,7 +2599,7 @@
         <v>22156</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>109</v>
@@ -2634,10 +2610,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
@@ -2649,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N8" s="57">
         <v>9510</v>
@@ -2658,7 +2634,7 @@
         <v>1358.5714285714287</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="60">
         <v>9510</v>
@@ -2667,7 +2643,7 @@
         <v>1358.5714285714287</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T8" s="60">
         <v>13600</v>
@@ -2676,7 +2652,7 @@
         <v>1942.8571428571429</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W8" s="60">
         <v>16000</v>
@@ -2685,7 +2661,7 @@
         <v>2285.7142857142858</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="Z8" s="60">
         <v>16500</v>
@@ -2708,10 +2684,10 @@
         <v>22135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="4">
         <v>44680</v>
@@ -2719,10 +2695,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="J9" s="3">
         <v>2</v>
@@ -2734,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N9" s="57">
         <v>12500</v>
@@ -2743,7 +2719,7 @@
         <v>2500</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="60">
         <v>12500</v>
@@ -2752,7 +2728,7 @@
         <v>2500</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T9" s="60">
         <v>13500</v>
@@ -2780,7 +2756,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4">
         <v>44693</v>
@@ -2788,7 +2764,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
@@ -2799,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N10" s="57">
         <v>4300</v>
@@ -2808,7 +2784,7 @@
         <v>2150</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="60">
         <v>4300</v>
@@ -2817,7 +2793,7 @@
         <v>2150</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T10" s="60">
         <v>4500</v>
@@ -2845,7 +2821,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="4">
         <v>44693</v>
@@ -2853,10 +2829,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
@@ -2868,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="N11" s="57">
         <v>10000</v>
@@ -2877,7 +2853,7 @@
         <v>2500</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="60">
         <v>10000</v>
@@ -2909,10 +2885,10 @@
         <v>22215</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="4">
         <v>44693</v>
@@ -2920,10 +2896,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2935,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="N12" s="57">
         <v>18500</v>
@@ -2944,7 +2920,7 @@
         <v>1233.3333333333333</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="60">
         <v>18500</v>
@@ -2953,7 +2929,7 @@
         <v>1233.3333333333333</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T12" s="60">
         <v>20000</v>
@@ -2962,7 +2938,7 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W12" s="60">
         <v>26100</v>
@@ -2971,7 +2947,7 @@
         <v>1740</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z12" s="60">
         <v>31500</v>
@@ -2994,10 +2970,10 @@
         <v>22214</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="4">
         <v>44739</v>
@@ -3016,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N13" s="57">
         <v>9000</v>
@@ -3025,7 +3001,7 @@
         <v>1800</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="60">
         <v>9000</v>
@@ -3034,7 +3010,7 @@
         <v>1800</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="T13" s="60">
         <v>11500</v>
@@ -3043,7 +3019,7 @@
         <v>2300</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W13" s="60">
         <v>12500</v>
@@ -3069,10 +3045,10 @@
         <v>22291</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4">
         <v>44746</v>
@@ -3080,7 +3056,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3091,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N14" s="57"/>
       <c r="O14" s="7"/>
@@ -3122,10 +3098,10 @@
         <v>22301</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4">
         <v>44760</v>
@@ -3138,7 +3114,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="24" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="J15" s="3">
         <v>5</v>
@@ -3179,10 +3155,10 @@
         <v>22312</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4">
         <v>44769</v>
@@ -3201,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N16" s="57">
         <v>3000</v>
@@ -3210,7 +3186,7 @@
         <v>3000</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="60">
         <v>3000</v>
@@ -3219,7 +3195,7 @@
         <v>3000</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T16" s="60">
         <v>3500</v>
@@ -3248,10 +3224,10 @@
         <v>22319</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4">
         <v>44777</v>
@@ -3270,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N17" s="57">
         <v>6400</v>
@@ -3279,7 +3255,7 @@
         <v>1600</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="60">
         <v>6400</v>
@@ -3288,7 +3264,7 @@
         <v>1600</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T17" s="60">
         <v>7000</v>
@@ -3297,7 +3273,7 @@
         <v>1750</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W17" s="60">
         <v>7800</v>
@@ -3323,10 +3299,10 @@
         <v>22198</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" s="4">
         <v>44797</v>
@@ -3335,7 +3311,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
       <c r="I18" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
@@ -3347,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N18" s="57">
         <v>6400</v>
@@ -3356,7 +3332,7 @@
         <v>1600</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="60">
         <v>6400</v>
@@ -3365,7 +3341,7 @@
         <v>1600</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T18" s="60">
         <v>8800</v>
@@ -3374,7 +3350,7 @@
         <v>2200</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W18" s="60">
         <v>9900</v>
@@ -3400,10 +3376,10 @@
         <v>22355</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E19" s="4">
         <v>44809</v>
@@ -3422,7 +3398,7 @@
         <v>11</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N19" s="57">
         <v>16500</v>
@@ -3431,7 +3407,7 @@
         <v>1500</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="60">
         <v>16500</v>
@@ -3440,7 +3416,7 @@
         <v>1500</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T19" s="60">
         <v>17200</v>
@@ -3449,7 +3425,7 @@
         <v>1563.6363636363637</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="W19" s="60">
         <v>18300</v>
@@ -3458,7 +3434,7 @@
         <v>1663.6363636363637</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Z19" s="60">
         <v>19000</v>
@@ -3467,7 +3443,7 @@
         <v>1727.2727272727273</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AC19" s="60">
         <v>22500</v>
@@ -3487,10 +3463,10 @@
         <v>20328</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E20" s="4">
         <v>44810</v>
@@ -3509,7 +3485,7 @@
         <v>15</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N20" s="57">
         <v>19200</v>
@@ -3518,7 +3494,7 @@
         <v>1280</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="60">
         <v>19200</v>
@@ -3527,7 +3503,7 @@
         <v>1280</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T20" s="60">
         <v>19500</v>
@@ -3536,7 +3512,7 @@
         <v>1300</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W20" s="60">
         <v>20000</v>
@@ -3545,7 +3521,7 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="Z20" s="60">
         <v>23000</v>
@@ -3554,7 +3530,7 @@
         <v>1533.3333333333333</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="AC20" s="60">
         <v>24000</v>
@@ -3574,10 +3550,10 @@
         <v>22337</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E21" s="4">
         <v>44819</v>
@@ -3599,7 +3575,7 @@
       <c r="N21" s="57"/>
       <c r="O21" s="7"/>
       <c r="P21" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="60">
         <v>26500</v>
@@ -3608,7 +3584,7 @@
         <v>1204.5454545454545</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T21" s="60">
         <v>28000</v>
@@ -3617,7 +3593,7 @@
         <v>1272.7272727272727</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W21" s="60">
         <v>28600</v>
@@ -3626,7 +3602,7 @@
         <v>1300</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Z21" s="60">
         <v>31600</v>
@@ -3635,7 +3611,7 @@
         <v>1436.3636363636363</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="AC21" s="60">
         <v>36200</v>
@@ -3644,7 +3620,7 @@
         <v>1645.4545454545455</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="AF21" s="60">
         <v>38200</v>
@@ -3661,10 +3637,10 @@
         <v>22371</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E22" s="4">
         <v>44826</v>
@@ -3686,7 +3662,7 @@
       <c r="N22" s="57"/>
       <c r="O22" s="7"/>
       <c r="P22" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="60">
         <v>9500</v>
@@ -3695,7 +3671,7 @@
         <v>1055.5555555555557</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="T22" s="60">
         <v>11700</v>
@@ -3704,7 +3680,7 @@
         <v>1300</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="W22" s="60">
         <v>11800</v>
@@ -3713,7 +3689,7 @@
         <v>1311.1111111111111</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="Z22" s="60">
         <v>12600</v>
@@ -3722,7 +3698,7 @@
         <v>1400</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="AC22" s="60">
         <v>16100</v>
@@ -3742,19 +3718,19 @@
         <v>22366</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E23" s="4">
         <v>44833</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="3"/>
@@ -3771,7 +3747,7 @@
       <c r="N23" s="57"/>
       <c r="O23" s="7"/>
       <c r="P23" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="60">
         <v>9800</v>
@@ -3780,7 +3756,7 @@
         <v>1400</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T23" s="60">
         <v>10500</v>
@@ -3789,7 +3765,7 @@
         <v>1500</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W23" s="60">
         <v>12500</v>
@@ -3798,7 +3774,7 @@
         <v>1785.7142857142858</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Z23" s="60">
         <v>15000</v>
@@ -3807,13 +3783,13 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AC23" s="60" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="60"/>
@@ -3827,10 +3803,10 @@
         <v>22388</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E24" s="4">
         <v>44845</v>
@@ -3848,7 +3824,7 @@
       <c r="N24" s="57"/>
       <c r="O24" s="7"/>
       <c r="P24" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="60">
         <v>12000</v>
@@ -3857,7 +3833,7 @@
         <v>1000</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T24" s="60">
         <v>13000</v>
@@ -3866,7 +3842,7 @@
         <v>1083.3333333333333</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W24" s="60">
         <v>13700</v>
@@ -3875,7 +3851,7 @@
         <v>1141.6666666666667</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="Z24" s="60">
         <v>16500</v>
@@ -3884,7 +3860,7 @@
         <v>1375</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="AC24" s="60">
         <v>18800</v>
@@ -3893,7 +3869,7 @@
         <v>1566.6666666666667</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="AF24" s="60">
         <v>21000</v>
@@ -3910,10 +3886,10 @@
         <v>22306</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E25" s="4">
         <v>44854</v>
@@ -3931,7 +3907,7 @@
       <c r="N25" s="57"/>
       <c r="O25" s="7"/>
       <c r="P25" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="60">
         <v>8400</v>
@@ -3940,7 +3916,7 @@
         <v>1200</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T25" s="60">
         <v>8700</v>
@@ -3949,7 +3925,7 @@
         <v>1242.8571428571429</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W25" s="60">
         <v>9500</v>
@@ -3958,7 +3934,7 @@
         <v>1357.1428571428571</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Z25" s="60">
         <v>11900</v>
@@ -3981,10 +3957,10 @@
         <v>22405</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E26" s="4">
         <v>44862</v>
@@ -4004,7 +3980,7 @@
       <c r="N26" s="57"/>
       <c r="O26" s="7"/>
       <c r="P26" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q26" s="60">
         <v>7000</v>
@@ -4013,7 +3989,7 @@
         <v>1000</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T26" s="60">
         <v>8400</v>
@@ -4022,7 +3998,7 @@
         <v>1200</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W26" s="60">
         <v>9000</v>
@@ -4031,7 +4007,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Z26" s="60">
         <v>9500</v>
@@ -4054,10 +4030,10 @@
         <v>22169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E27" s="4">
         <v>44869</v>
@@ -4075,7 +4051,7 @@
       <c r="N27" s="57"/>
       <c r="O27" s="7"/>
       <c r="P27" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="60">
         <v>18900</v>
@@ -4084,7 +4060,7 @@
         <v>1575</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T27" s="60">
         <v>21000</v>
@@ -4113,10 +4089,10 @@
         <v>22424</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E28" s="4">
         <v>44882</v>
@@ -4158,10 +4134,10 @@
         <v>22423</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E29" s="4">
         <v>44882</v>
@@ -4207,7 +4183,7 @@
         <v>20219</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>70</v>
@@ -4258,7 +4234,7 @@
         <v>21018</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>71</v>
@@ -4269,7 +4245,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3">
@@ -4282,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N31" s="57">
         <v>16000</v>
@@ -4291,7 +4267,7 @@
         <v>1000</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="60">
         <v>16000</v>
@@ -4300,7 +4276,7 @@
         <v>1000</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T31" s="60">
         <v>22000</v>
@@ -4309,7 +4285,7 @@
         <v>1375</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W31" s="67">
         <v>28000</v>
@@ -4335,7 +4311,7 @@
         <v>20432</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>72</v>
@@ -4346,7 +4322,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3">
@@ -4359,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N32" s="57">
         <v>6500</v>
@@ -4368,7 +4344,7 @@
         <v>1300</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q32" s="60">
         <v>6500</v>
@@ -4377,7 +4353,7 @@
         <v>1300</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T32" s="60">
         <v>6900</v>
@@ -4386,7 +4362,7 @@
         <v>1380</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="W32" s="67">
         <v>8600</v>
@@ -4412,7 +4388,7 @@
         <v>21062</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>73</v>
@@ -4423,7 +4399,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
@@ -4436,7 +4412,7 @@
         <v>21</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N33" s="57">
         <v>25000</v>
@@ -4445,7 +4421,7 @@
         <v>1190.4761904761904</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q33" s="60">
         <v>25000</v>
@@ -4454,7 +4430,7 @@
         <v>1190.4761904761904</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T33" s="60">
         <v>34000</v>
@@ -4463,7 +4439,7 @@
         <v>1619.047619047619</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W33" s="67">
         <v>38000</v>
@@ -4489,7 +4465,7 @@
         <v>21071</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>74</v>
@@ -4500,7 +4476,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3">
@@ -4513,7 +4489,7 @@
         <v>7</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N34" s="57">
         <v>8400</v>
@@ -4522,7 +4498,7 @@
         <v>1200</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="60">
         <v>8400</v>
@@ -4531,7 +4507,7 @@
         <v>1200</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T34" s="60">
         <v>13600</v>
@@ -4540,7 +4516,7 @@
         <v>1942.8571428571429</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W34" s="67">
         <v>0</v>
@@ -4566,7 +4542,7 @@
         <v>21063</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>75</v>
@@ -4577,7 +4553,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3">
@@ -4590,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N35" s="57">
         <v>11760</v>
@@ -4599,7 +4575,7 @@
         <v>980</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="60">
         <v>11760</v>
@@ -4608,7 +4584,7 @@
         <v>980</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T35" s="60">
         <v>14500</v>
@@ -4617,13 +4593,13 @@
         <v>1208.3333333333333</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W35" s="67" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="60"/>
@@ -4643,7 +4619,7 @@
         <v>21064</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>76</v>
@@ -4654,7 +4630,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3">
@@ -4667,7 +4643,7 @@
         <v>25</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N36" s="57">
         <v>45200</v>
@@ -4676,7 +4652,7 @@
         <v>1808</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="60">
         <v>32500</v>
@@ -4685,7 +4661,7 @@
         <v>1300</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T36" s="60">
         <v>45200</v>
@@ -4694,7 +4670,7 @@
         <v>1808</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W36" s="67">
         <v>47000</v>
@@ -4720,7 +4696,7 @@
         <v>21019</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>77</v>
@@ -4731,7 +4707,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3">
@@ -4744,7 +4720,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N37" s="57">
         <v>11700</v>
@@ -4753,7 +4729,7 @@
         <v>1300</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="60">
         <v>11700</v>
@@ -4762,7 +4738,7 @@
         <v>1300</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T37" s="60">
         <v>15000</v>
@@ -4771,7 +4747,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W37" s="67">
         <v>18200</v>
@@ -4815,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N38" s="57">
         <v>3740</v>
@@ -4824,7 +4800,7 @@
         <v>1870</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="60">
         <v>3740</v>
@@ -4833,7 +4809,7 @@
         <v>1870</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T38" s="60">
         <v>4800</v>
@@ -4865,7 +4841,7 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
@@ -4878,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N39" s="57">
         <v>3300</v>
@@ -4887,7 +4863,7 @@
         <v>1650</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q39" s="60">
         <v>3300</v>
@@ -4896,7 +4872,7 @@
         <v>1650</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T39" s="60">
         <v>3400</v>
@@ -4932,7 +4908,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3">
@@ -4942,34 +4918,34 @@
         <v>4</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N40" s="57">
         <v>6400</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="60">
         <v>6400</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T40" s="60">
         <v>7200</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V40" s="3"/>
       <c r="W40" s="67"/>
@@ -4999,7 +4975,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
@@ -5012,7 +4988,7 @@
         <v>17</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N41" s="57">
         <v>16320</v>
@@ -5021,7 +4997,7 @@
         <v>960</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="60">
         <v>16320</v>
@@ -5030,7 +5006,7 @@
         <v>960</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T41" s="60">
         <v>20000</v>
@@ -5039,7 +5015,7 @@
         <v>1176.4705882352941</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="W41" s="67">
         <v>25000</v>
@@ -5065,7 +5041,7 @@
         <v>21190</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>81</v>
@@ -5076,7 +5052,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
@@ -5089,7 +5065,7 @@
         <v>28</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N42" s="57">
         <v>30000</v>
@@ -5098,7 +5074,7 @@
         <v>1071.4285714285713</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="60">
         <v>30000</v>
@@ -5107,7 +5083,7 @@
         <v>1071.4285714285713</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T42" s="60">
         <v>31000</v>
@@ -5116,7 +5092,7 @@
         <v>1107.1428571428571</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="W42" s="67">
         <v>32400</v>
@@ -5125,7 +5101,7 @@
         <v>1157.1428571428571</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z42" s="60">
         <v>50900</v>
@@ -5155,7 +5131,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
@@ -5168,7 +5144,7 @@
         <v>11</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N43" s="57">
         <v>13000</v>
@@ -5177,7 +5153,7 @@
         <v>1181.8181818181818</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="60">
         <v>13000</v>
@@ -5186,7 +5162,7 @@
         <v>1181.8181818181818</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T43" s="60">
         <v>13000</v>
@@ -5195,13 +5171,13 @@
         <v>1181.8181818181818</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="W43" s="67" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="60"/>
@@ -5221,7 +5197,7 @@
         <v>21184</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>83</v>
@@ -5272,7 +5248,7 @@
         <v>21210</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>84</v>
@@ -5373,7 +5349,7 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
@@ -5386,7 +5362,7 @@
         <v>19</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N47" s="57">
         <v>19000</v>
@@ -5395,7 +5371,7 @@
         <v>1000</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q47" s="60">
         <v>19000</v>
@@ -5404,7 +5380,7 @@
         <v>1000</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T47" s="60">
         <v>23900</v>
@@ -5413,7 +5389,7 @@
         <v>1257.8947368421052</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="W47" s="67">
         <v>32000</v>
@@ -5422,7 +5398,7 @@
         <v>1684.2105263157894</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="Z47" s="60">
         <v>36000</v>
@@ -5445,7 +5421,7 @@
         <v>21289</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>86</v>
@@ -5456,7 +5432,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3">
@@ -5469,7 +5445,7 @@
         <v>8</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N48" s="57">
         <v>8800</v>
@@ -5478,7 +5454,7 @@
         <v>1100</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q48" s="60">
         <v>8800</v>
@@ -5487,7 +5463,7 @@
         <v>1100</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T48" s="60">
         <v>11900</v>
@@ -5496,7 +5472,7 @@
         <v>1487.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W48" s="67">
         <v>15900</v>
@@ -5529,7 +5505,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
@@ -5537,34 +5513,34 @@
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N49" s="57">
         <v>4300</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q49" s="60">
         <v>4300</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T49" s="60">
         <v>4500</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="67"/>
@@ -5587,7 +5563,7 @@
         <v>21315</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>88</v>
@@ -5638,7 +5614,7 @@
         <v>20229</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>89</v>
@@ -5649,7 +5625,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
@@ -5662,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N51" s="57">
         <v>7500</v>
@@ -5671,7 +5647,7 @@
         <v>1500</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q51" s="60">
         <v>7500</v>
@@ -5680,7 +5656,7 @@
         <v>1500</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T51" s="60">
         <v>8100</v>
@@ -5689,7 +5665,7 @@
         <v>1620</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="W51" s="67">
         <v>14200</v>
@@ -5698,7 +5674,7 @@
         <v>2840</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z51" s="60">
         <v>15000</v>
@@ -5707,7 +5683,7 @@
         <v>3000</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="AC51" s="60">
         <v>16500</v>
@@ -5716,7 +5692,7 @@
         <v>3300</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="AF51" s="62">
         <v>17200</v>
@@ -5733,7 +5709,7 @@
         <v>21363</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>90</v>
@@ -5744,7 +5720,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
@@ -5757,7 +5733,7 @@
         <v>8</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N52" s="57">
         <v>10500</v>
@@ -5766,7 +5742,7 @@
         <v>1312.5</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q52" s="60">
         <v>10500</v>
@@ -5775,7 +5751,7 @@
         <v>1312.5</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="T52" s="60">
         <v>11800</v>
@@ -5784,7 +5760,7 @@
         <v>1475</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W52" s="67">
         <v>14000</v>
@@ -5825,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="57"/>
@@ -5864,7 +5840,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
@@ -5874,34 +5850,34 @@
         <v>2</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N54" s="57">
         <v>4800</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q54" s="60">
         <v>4800</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T54" s="60">
         <v>6100</v>
       </c>
       <c r="U54" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="67"/>
@@ -5924,7 +5900,7 @@
         <v>21423</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>93</v>
@@ -5980,7 +5956,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3">
@@ -5993,7 +5969,7 @@
         <v>6</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N56" s="57">
         <v>1400</v>
@@ -6002,7 +5978,7 @@
         <v>233.33333333333334</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q56" s="61">
         <v>8400</v>
@@ -6011,7 +5987,7 @@
         <v>1400</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T56" s="61">
         <v>9000</v>
@@ -6020,7 +5996,7 @@
         <v>1500</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W56" s="68">
         <v>12900</v>
@@ -6046,7 +6022,7 @@
         <v>21420</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>94</v>
@@ -6057,7 +6033,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3">
@@ -6070,7 +6046,7 @@
         <v>10</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N57" s="57">
         <v>10000</v>
@@ -6079,7 +6055,7 @@
         <v>1000</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q57" s="60">
         <v>10000</v>
@@ -6088,7 +6064,7 @@
         <v>1000</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T57" s="60">
         <v>14000</v>
@@ -6117,7 +6093,7 @@
         <v>21415</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>95</v>
@@ -6128,7 +6104,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
@@ -6141,7 +6117,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N58" s="57">
         <v>12600</v>
@@ -6150,7 +6126,7 @@
         <v>1400</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q58" s="60">
         <v>12600</v>
@@ -6159,7 +6135,7 @@
         <v>1400</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T58" s="60">
         <v>16500</v>
@@ -6188,7 +6164,7 @@
         <v>21332</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>96</v>
@@ -6199,7 +6175,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
@@ -6209,34 +6185,34 @@
         <v>9</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N59" s="57">
         <v>12000</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q59" s="60">
         <v>12000</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T59" s="60">
         <v>13000</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V59" s="3"/>
       <c r="W59" s="67"/>
@@ -6259,7 +6235,7 @@
         <v>20133</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>97</v>
@@ -6278,7 +6254,7 @@
         <v>32</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="57"/>
@@ -6310,7 +6286,7 @@
         <v>21478</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>98</v>
@@ -6363,7 +6339,7 @@
         <v>21506</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>99</v>
@@ -6374,7 +6350,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
@@ -6387,7 +6363,7 @@
         <v>5</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N62" s="57">
         <v>5600</v>
@@ -6396,7 +6372,7 @@
         <v>1120</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q62" s="60">
         <v>5600</v>
@@ -6405,7 +6381,7 @@
         <v>1120</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T62" s="60">
         <v>7900</v>
@@ -6414,7 +6390,7 @@
         <v>1580</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W62" s="67">
         <v>8800</v>
@@ -6440,7 +6416,7 @@
         <v>21496</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>100</v>
@@ -6549,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="57"/>
@@ -6581,7 +6557,7 @@
         <v>20018</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>48</v>
@@ -6592,7 +6568,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
@@ -6605,7 +6581,7 @@
         <v>2</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N66" s="57">
         <v>4100</v>
@@ -6614,7 +6590,7 @@
         <v>2050</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q66" s="60">
         <v>4100</v>
@@ -6623,7 +6599,7 @@
         <v>2050</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T66" s="60">
         <v>5900</v>
@@ -6650,7 +6626,7 @@
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>47</v>
@@ -6661,7 +6637,7 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
@@ -6674,7 +6650,7 @@
         <v>18</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N67" s="57">
         <v>25000</v>
@@ -6683,7 +6659,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q67" s="60">
         <v>25000</v>
@@ -6692,7 +6668,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T67" s="60">
         <v>34200</v>
@@ -6701,7 +6677,7 @@
         <v>1900</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W67" s="60">
         <v>35000</v>
@@ -6727,7 +6703,7 @@
         <v>20047</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>49</v>
@@ -6738,7 +6714,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
@@ -6751,7 +6727,7 @@
         <v>10</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N68" s="57">
         <v>21500</v>
@@ -6760,7 +6736,7 @@
         <v>2150</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q68" s="60">
         <v>17000</v>
@@ -6769,7 +6745,7 @@
         <v>1700</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T68" s="60">
         <v>19700</v>
@@ -6778,7 +6754,7 @@
         <v>1970</v>
       </c>
       <c r="V68" s="22" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W68" s="60">
         <v>21500</v>
@@ -6804,7 +6780,7 @@
         <v>20083</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>50</v>
@@ -6815,7 +6791,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
@@ -6828,7 +6804,7 @@
         <v>5</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N69" s="57">
         <v>7000</v>
@@ -6837,7 +6813,7 @@
         <v>1400</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q69" s="60">
         <v>7000</v>
@@ -6846,7 +6822,7 @@
         <v>1400</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T69" s="60">
         <v>11000</v>
@@ -6875,7 +6851,7 @@
         <v>20013</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>51</v>
@@ -6886,7 +6862,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
@@ -6899,7 +6875,7 @@
         <v>18</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N70" s="57">
         <v>23400</v>
@@ -6908,7 +6884,7 @@
         <v>1300</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q70" s="60">
         <v>23400</v>
@@ -6917,7 +6893,7 @@
         <v>1300</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T70" s="60">
         <v>31000</v>
@@ -6946,7 +6922,7 @@
         <v>20119</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>52</v>
@@ -6957,7 +6933,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
@@ -6970,7 +6946,7 @@
         <v>12</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N71" s="57">
         <v>16800</v>
@@ -6979,7 +6955,7 @@
         <v>1400</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q71" s="60">
         <v>16800</v>
@@ -6988,7 +6964,7 @@
         <v>1400</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T71" s="60">
         <v>19900</v>
@@ -7017,7 +6993,7 @@
         <v>19210</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>53</v>
@@ -7070,7 +7046,7 @@
         <v>20194</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>54</v>
@@ -7126,7 +7102,7 @@
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3">
@@ -7139,7 +7115,7 @@
         <v>9</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N74" s="57">
         <v>15000</v>
@@ -7148,7 +7124,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q74" s="60">
         <v>13500</v>
@@ -7157,7 +7133,7 @@
         <v>1500</v>
       </c>
       <c r="S74" s="22" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T74" s="60">
         <v>15000</v>
@@ -7166,7 +7142,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W74" s="60">
         <v>18400</v>
@@ -7192,7 +7168,7 @@
         <v>20209</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>55</v>
@@ -7203,7 +7179,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
@@ -7216,7 +7192,7 @@
         <v>9</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N75" s="57">
         <v>12500</v>
@@ -7225,7 +7201,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q75" s="60">
         <v>12500</v>
@@ -7234,7 +7210,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T75" s="60">
         <v>12600</v>
@@ -7243,7 +7219,7 @@
         <v>1400</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W75" s="60">
         <v>13500</v>
@@ -7269,7 +7245,7 @@
         <v>20213</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>56</v>
@@ -7280,7 +7256,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
@@ -7293,7 +7269,7 @@
         <v>11</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N76" s="57">
         <v>10500</v>
@@ -7302,7 +7278,7 @@
         <v>954.5454545454545</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q76" s="60">
         <v>10500</v>
@@ -7311,7 +7287,7 @@
         <v>954.5454545454545</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T76" s="60">
         <v>14900</v>
@@ -7340,7 +7316,7 @@
         <v>20043</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>57</v>
@@ -7351,7 +7327,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3">
@@ -7364,7 +7340,7 @@
         <v>17</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N77" s="57">
         <v>20000</v>
@@ -7373,7 +7349,7 @@
         <v>1176.4705882352941</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q77" s="60">
         <v>20000</v>
@@ -7382,7 +7358,7 @@
         <v>1176.4705882352941</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T77" s="60">
         <v>22000</v>
@@ -7411,7 +7387,7 @@
         <v>20245</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>58</v>
@@ -7467,7 +7443,7 @@
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
@@ -7477,34 +7453,34 @@
         <v>7</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N79" s="57">
         <v>5200</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q79" s="60">
         <v>4300</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S79" s="22" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T79" s="60">
         <v>5200</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V79" s="3"/>
       <c r="W79" s="60"/>
@@ -7527,7 +7503,7 @@
         <v>20248</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>59</v>
@@ -7538,7 +7514,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3">
@@ -7551,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N80" s="57">
         <v>4100</v>
@@ -7560,7 +7536,7 @@
         <v>2050</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q80" s="60">
         <v>4100</v>
@@ -7569,7 +7545,7 @@
         <v>2050</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T80" s="60">
         <v>4700</v>
@@ -7578,7 +7554,7 @@
         <v>2350</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W80" s="60">
         <v>7400</v>
@@ -7604,7 +7580,7 @@
         <v>20281</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>60</v>
@@ -7660,7 +7636,7 @@
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3">
@@ -7673,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N82" s="57">
         <v>5600</v>
@@ -7682,7 +7658,7 @@
         <v>1400</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q82" s="60">
         <v>5600</v>
@@ -7691,7 +7667,7 @@
         <v>1400</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T82" s="60">
         <v>4300</v>
@@ -7700,7 +7676,7 @@
         <v>1075</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W82" s="60">
         <v>4700</v>
@@ -7726,7 +7702,7 @@
         <v>20296</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>61</v>
@@ -7737,7 +7713,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
@@ -7750,7 +7726,7 @@
         <v>6</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N83" s="57">
         <v>5600</v>
@@ -7759,7 +7735,7 @@
         <v>933.33333333333337</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q83" s="60">
         <v>5600</v>
@@ -7768,7 +7744,7 @@
         <v>933.33333333333337</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T83" s="60">
         <v>6500</v>
@@ -7797,7 +7773,7 @@
         <v>20300</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>62</v>
@@ -7853,7 +7829,7 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
@@ -7866,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N85" s="57">
         <v>6000</v>
@@ -7875,7 +7851,7 @@
         <v>1500</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q85" s="60">
         <v>6000</v>
@@ -7884,7 +7860,7 @@
         <v>1500</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T85" s="60">
         <v>6500</v>
@@ -7976,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N87" s="57">
         <v>7000</v>
@@ -7985,7 +7961,7 @@
         <v>1400</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q87" s="60">
         <v>7000</v>
@@ -7994,7 +7970,7 @@
         <v>1400</v>
       </c>
       <c r="S87" s="24" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T87" s="60">
         <v>7000</v>
@@ -8003,7 +7979,7 @@
         <v>1400</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W87" s="60">
         <v>7500</v>
@@ -8012,7 +7988,7 @@
         <v>1500</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="Z87" s="60">
         <v>9000</v>
@@ -8035,7 +8011,7 @@
         <v>20362</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>65</v>
@@ -8046,7 +8022,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3">
@@ -8059,7 +8035,7 @@
         <v>7</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N88" s="57">
         <v>8820</v>
@@ -8068,7 +8044,7 @@
         <v>1260</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q88" s="60">
         <v>8820</v>
@@ -8077,7 +8053,7 @@
         <v>1260</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T88" s="60">
         <v>9000</v>
@@ -8086,7 +8062,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W88" s="60">
         <v>9100</v>
@@ -8095,7 +8071,7 @@
         <v>1300</v>
       </c>
       <c r="Y88" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z88" s="60">
         <v>15000</v>
@@ -8125,7 +8101,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
@@ -8135,34 +8111,34 @@
         <v>12</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="N89" s="57">
         <v>9500</v>
       </c>
       <c r="O89" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q89" s="60">
         <v>9500</v>
       </c>
       <c r="R89" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T89" s="60">
         <v>9800</v>
       </c>
       <c r="U89" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V89" s="3"/>
       <c r="W89" s="60"/>
@@ -8185,7 +8161,7 @@
         <v>20425</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>67</v>
@@ -8196,7 +8172,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
@@ -8209,7 +8185,7 @@
         <v>17</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N90" s="57">
         <v>10500</v>
@@ -8218,7 +8194,7 @@
         <v>617.64705882352939</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q90" s="60">
         <v>10500</v>
@@ -8227,7 +8203,7 @@
         <v>617.64705882352939</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T90" s="60">
         <v>20900</v>
@@ -8236,7 +8212,7 @@
         <v>1229.4117647058824</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W90" s="60">
         <v>33100</v>
@@ -8262,7 +8238,7 @@
         <v>20448</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>68</v>
@@ -8273,7 +8249,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
@@ -8286,7 +8262,7 @@
         <v>7</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N91" s="57">
         <v>9000</v>
@@ -8295,7 +8271,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q91" s="60">
         <v>9000</v>
@@ -8304,7 +8280,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T91" s="60">
         <v>10700</v>
@@ -8340,7 +8316,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3">
@@ -8353,7 +8329,7 @@
         <v>18</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N92" s="57">
         <v>20000</v>
@@ -8362,7 +8338,7 @@
         <v>1111.1111111111111</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q92" s="60">
         <v>18000</v>
@@ -8371,7 +8347,7 @@
         <v>1000</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T92" s="60">
         <v>20000</v>
@@ -8400,7 +8376,7 @@
         <v>19024</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>32</v>
@@ -8411,7 +8387,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3">
@@ -8424,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N93" s="57">
         <v>9100</v>
@@ -8433,7 +8409,7 @@
         <v>1300</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q93" s="60">
         <v>9100</v>
@@ -8442,7 +8418,7 @@
         <v>1300</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T93" s="60">
         <v>11800</v>
@@ -8518,7 +8494,7 @@
         <v>19025</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>35</v>
@@ -8569,7 +8545,7 @@
         <v>19028</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>24</v>
@@ -8580,7 +8556,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
@@ -8593,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N96" s="57">
         <v>14300</v>
@@ -8602,7 +8578,7 @@
         <v>1300</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q96" s="60">
         <v>14300</v>
@@ -8611,7 +8587,7 @@
         <v>1300</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T96" s="60">
         <v>18500</v>
@@ -8640,7 +8616,7 @@
         <v>19046</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>25</v>
@@ -8651,7 +8627,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
@@ -8664,7 +8640,7 @@
         <v>12</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N97" s="57">
         <v>20200</v>
@@ -8673,7 +8649,7 @@
         <v>1683.3333333333333</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q97" s="60">
         <v>20200</v>
@@ -8682,7 +8658,7 @@
         <v>1683.3333333333333</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T97" s="60">
         <v>21200</v>
@@ -8711,7 +8687,7 @@
         <v>19081</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>26</v>
@@ -8722,7 +8698,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3">
@@ -8735,7 +8711,7 @@
         <v>14</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N98" s="57">
         <v>18200</v>
@@ -8744,7 +8720,7 @@
         <v>1300</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q98" s="60">
         <v>18200</v>
@@ -8753,7 +8729,7 @@
         <v>1300</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="T98" s="60">
         <v>20000</v>
@@ -8762,7 +8738,7 @@
         <v>1428.5714285714287</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="W98" s="62">
         <v>20800</v>
@@ -8771,7 +8747,7 @@
         <v>1485.7142857142858</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Z98" s="62">
         <v>28200</v>
@@ -8780,7 +8756,7 @@
         <v>2014.2857142857142</v>
       </c>
       <c r="AB98" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AC98" s="62">
         <v>29300</v>
@@ -8789,7 +8765,7 @@
         <v>2092.8571428571427</v>
       </c>
       <c r="AE98" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="AF98" s="62">
         <v>30200</v>
@@ -8806,7 +8782,7 @@
         <v>19063</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>30</v>
@@ -8817,7 +8793,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3">
@@ -8830,7 +8806,7 @@
         <v>10</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N99" s="57">
         <v>12000</v>
@@ -8839,7 +8815,7 @@
         <v>1200</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q99" s="60">
         <v>12000</v>
@@ -8848,7 +8824,7 @@
         <v>1200</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T99" s="60">
         <v>16800</v>
@@ -8857,7 +8833,7 @@
         <v>1680</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="W99" s="62">
         <v>20000</v>
@@ -8883,7 +8859,7 @@
         <v>19107</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -8894,7 +8870,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3">
@@ -8907,7 +8883,7 @@
         <v>31</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N100" s="57">
         <v>39800</v>
@@ -8916,7 +8892,7 @@
         <v>1283.8709677419354</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q100" s="60">
         <v>39800</v>
@@ -8925,7 +8901,7 @@
         <v>1283.8709677419354</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="T100" s="60">
         <v>47000</v>
@@ -8934,7 +8910,7 @@
         <v>1516.1290322580646</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W100" s="62">
         <v>49000</v>
@@ -8960,7 +8936,7 @@
         <v>19100</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>36</v>
@@ -8971,7 +8947,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3">
@@ -8984,7 +8960,7 @@
         <v>2</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N101" s="57">
         <v>5400</v>
@@ -8993,7 +8969,7 @@
         <v>2700</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q101" s="60">
         <v>4000</v>
@@ -9002,7 +8978,7 @@
         <v>2000</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T101" s="60">
         <v>5400</v>
@@ -9031,7 +9007,7 @@
         <v>19101</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>37</v>
@@ -9042,7 +9018,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -9053,7 +9029,7 @@
         <v>9</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N102" s="57">
         <v>11700</v>
@@ -9062,7 +9038,7 @@
         <v>1300</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q102" s="60">
         <v>11700</v>
@@ -9071,7 +9047,7 @@
         <v>1300</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T102" s="60">
         <v>17000</v>
@@ -9100,7 +9076,7 @@
         <v>19112</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>38</v>
@@ -9151,7 +9127,7 @@
         <v>19113</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>39</v>
@@ -9162,7 +9138,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
@@ -9175,7 +9151,7 @@
         <v>15</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N104" s="57">
         <v>18000</v>
@@ -9184,7 +9160,7 @@
         <v>1200</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q104" s="60">
         <v>18000</v>
@@ -9193,7 +9169,7 @@
         <v>1200</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T104" s="60">
         <v>24800</v>
@@ -9222,7 +9198,7 @@
         <v>19119</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>23</v>
@@ -9233,7 +9209,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3">
@@ -9246,7 +9222,7 @@
         <v>10</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N105" s="57">
         <v>18900</v>
@@ -9255,7 +9231,7 @@
         <v>1890</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q105" s="60">
         <v>18900</v>
@@ -9264,7 +9240,7 @@
         <v>1890</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T105" s="60">
         <v>19800</v>
@@ -9293,7 +9269,7 @@
         <v>19137</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>40</v>
@@ -9304,7 +9280,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3">
@@ -9317,7 +9293,7 @@
         <v>17</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N106" s="57">
         <v>22100</v>
@@ -9326,7 +9302,7 @@
         <v>1300</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q106" s="60">
         <v>22100</v>
@@ -9335,7 +9311,7 @@
         <v>1300</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T106" s="60">
         <v>28300</v>
@@ -9344,7 +9320,7 @@
         <v>1664.7058823529412</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W106" s="62">
         <v>30000</v>
@@ -9370,7 +9346,7 @@
         <v>19127</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>41</v>
@@ -9381,7 +9357,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3">
@@ -9394,7 +9370,7 @@
         <v>13</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N107" s="57">
         <v>12000</v>
@@ -9403,7 +9379,7 @@
         <v>923.07692307692309</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q107" s="60">
         <v>12000</v>
@@ -9412,7 +9388,7 @@
         <v>923.07692307692309</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T107" s="60">
         <v>16300</v>
@@ -9421,7 +9397,7 @@
         <v>1253.8461538461538</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W107" s="62">
         <v>18500</v>
@@ -9447,7 +9423,7 @@
         <v>19128</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>42</v>
@@ -9458,7 +9434,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3">
@@ -9471,7 +9447,7 @@
         <v>23</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N108" s="57">
         <v>24500</v>
@@ -9480,7 +9456,7 @@
         <v>1065.2173913043478</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q108" s="60">
         <v>21000</v>
@@ -9489,7 +9465,7 @@
         <v>913.04347826086962</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T108" s="60">
         <v>24500</v>
@@ -9518,7 +9494,7 @@
         <v>19258</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>43</v>
@@ -9572,7 +9548,7 @@
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3">
@@ -9585,7 +9561,7 @@
         <v>10</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N110" s="57">
         <v>14000</v>
@@ -9594,7 +9570,7 @@
         <v>1400</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q110" s="60">
         <v>14000</v>
@@ -9603,7 +9579,7 @@
         <v>1400</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T110" s="60">
         <v>20300</v>
@@ -9635,7 +9611,7 @@
         <v>43787</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3">
@@ -9648,7 +9624,7 @@
         <v>10</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N111" s="57">
         <v>14000</v>
@@ -9657,7 +9633,7 @@
         <v>1400</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q111" s="60">
         <v>14000</v>
@@ -9666,7 +9642,7 @@
         <v>1400</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T111" s="60">
         <v>17200</v>
@@ -9695,7 +9671,7 @@
         <v>19200</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>44</v>
@@ -9706,7 +9682,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -9717,7 +9693,7 @@
         <v>4</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N112" s="57">
         <v>4400</v>
@@ -9726,7 +9702,7 @@
         <v>1100</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q112" s="60">
         <v>4400</v>
@@ -9735,7 +9711,7 @@
         <v>1100</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T112" s="60">
         <v>8500</v>
@@ -9764,7 +9740,7 @@
         <v>19196</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>22</v>
@@ -9775,7 +9751,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -9786,7 +9762,7 @@
         <v>19</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N113" s="57">
         <v>28500</v>
@@ -9795,7 +9771,7 @@
         <v>1500</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q113" s="60">
         <v>28500</v>
@@ -9804,7 +9780,7 @@
         <v>1500</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="T113" s="60">
         <v>40200</v>
@@ -9919,7 +9895,7 @@
         <v>19190</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>45</v>
@@ -9970,7 +9946,7 @@
         <v>19252</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>21</v>
@@ -9981,7 +9957,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -9992,7 +9968,7 @@
         <v>10</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N117" s="57">
         <v>15000</v>
@@ -10001,7 +9977,7 @@
         <v>1500</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q117" s="60">
         <v>15000</v>
@@ -10010,7 +9986,7 @@
         <v>1500</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T117" s="60">
         <v>17300</v>
@@ -10019,7 +9995,7 @@
         <v>1730</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W117" s="62">
         <v>19000</v>
@@ -10045,7 +10021,7 @@
         <v>20001</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>47</v>
@@ -10056,7 +10032,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3">
@@ -10069,7 +10045,7 @@
         <v>18</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N118" s="57">
         <v>16900</v>
@@ -10078,7 +10054,7 @@
         <v>938.88888888888891</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q118" s="60">
         <v>16900</v>
@@ -10087,7 +10063,7 @@
         <v>938.88888888888891</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="T118" s="60">
         <v>18200</v>
@@ -10096,7 +10072,7 @@
         <v>1011.1111111111111</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="W118" s="62">
         <v>38000</v>
@@ -10440,7 +10416,7 @@
         <v>43418</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3">
@@ -10453,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N126" s="57">
         <v>3500</v>
@@ -10462,7 +10438,7 @@
         <v>3500</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q126" s="60">
         <v>3500</v>
@@ -10471,7 +10447,7 @@
         <v>3500</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="T126" s="62">
         <v>5380</v>
@@ -10500,7 +10476,7 @@
         <v>18244</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>13</v>
@@ -10551,7 +10527,7 @@
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="4"/>
@@ -10602,7 +10578,7 @@
         <v>18278</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>18</v>
@@ -10613,7 +10589,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3">
@@ -10626,7 +10602,7 @@
         <v>18</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N129" s="57">
         <v>29900</v>
@@ -10635,7 +10611,7 @@
         <v>1661.1111111111111</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q129" s="60">
         <v>29900</v>
@@ -10644,7 +10620,7 @@
         <v>1661.1111111111111</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T129" s="62">
         <v>31000</v>
@@ -10680,7 +10656,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -10688,34 +10664,34 @@
         <v>10</v>
       </c>
       <c r="L130" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="N130" s="57">
         <v>7490</v>
       </c>
       <c r="O130" s="39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="Q130" s="60">
         <v>7490</v>
       </c>
       <c r="R130" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S130" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="T130" s="62">
         <v>24500</v>
       </c>
       <c r="U130" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V130" s="3"/>
       <c r="W130" s="62"/>

--- a/app/src/main/resources/migration/HAS-DB-나라장터.xlsx
+++ b/app/src/main/resources/migration/HAS-DB-나라장터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9723ACAB-1C08-4130-9C8B-7958C0264729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C2CA9-72AF-4991-B9C3-086445A56993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration" sheetId="18" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="263">
   <si>
     <t>수요기관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -645,10 +645,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한양풍동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>펜타드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -663,9 +659,6 @@
   <si>
     <t>HDL</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한양풍동</t>
   </si>
   <si>
     <t>전라도</t>
@@ -1284,10 +1277,13 @@
     <t>주식회사 제이케이윈드엔지니어링</t>
   </si>
   <si>
-    <t>대비견적(한양풍동실험연구소요청)</t>
-  </si>
-  <si>
     <t>㈜대우건설</t>
+  </si>
+  <si>
+    <t>한양풍동실험연구소</t>
+  </si>
+  <si>
+    <t>대비견적(한양풍동실험연구소실험연구소요청)</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2050,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA10EB8D-1FD7-4E00-8C0A-B7890FE6B62C}">
   <dimension ref="A1:AG130"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="55" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -2096,10 +2092,10 @@
         <v>116</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>0</v>
@@ -2141,55 +2137,55 @@
         <v>6</v>
       </c>
       <c r="Q1" s="59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U1" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X1" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>27</v>
       </c>
       <c r="Z1" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AA1" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AB1" s="41" t="s">
         <v>28</v>
       </c>
       <c r="AC1" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AD1" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AE1" s="41" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="50.1" customHeight="1">
@@ -2247,7 +2243,7 @@
         <v>22062</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>102</v>
@@ -2259,7 +2255,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="8"/>
       <c r="I3" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J3" s="3">
         <v>5</v>
@@ -2271,7 +2267,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N3" s="57">
         <v>42000</v>
@@ -2280,7 +2276,7 @@
         <v>2000</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="60">
         <v>30000</v>
@@ -2289,7 +2285,7 @@
         <v>1428.5714285714287</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T3" s="60">
         <v>39000</v>
@@ -2298,7 +2294,7 @@
         <v>1857.1428571428571</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W3" s="60">
         <v>42000</v>
@@ -2307,7 +2303,7 @@
         <v>2000</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Z3" s="60">
         <v>42000</v>
@@ -2316,7 +2312,7 @@
         <v>2000</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC3" s="60">
         <v>44000</v>
@@ -2356,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N4" s="57">
         <v>8181.8181999999997</v>
@@ -2365,7 +2361,7 @@
         <v>1363.6363666666666</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="60">
         <v>8181.8181999999997</v>
@@ -2374,7 +2370,7 @@
         <v>1363.6363666666666</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T4" s="60">
         <v>9000</v>
@@ -2403,7 +2399,7 @@
         <v>21411</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>114</v>
@@ -2429,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N5" s="57">
         <v>31500</v>
@@ -2438,7 +2434,7 @@
         <v>1852.9411764705883</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="60">
         <v>31500</v>
@@ -2447,7 +2443,7 @@
         <v>1852.9411764705883</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T5" s="60">
         <v>33000</v>
@@ -2503,7 +2499,7 @@
       <c r="T6" s="60"/>
       <c r="U6" s="35"/>
       <c r="V6" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W6" s="60"/>
       <c r="X6" s="17"/>
@@ -2549,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N7" s="57">
         <v>16500</v>
@@ -2558,7 +2554,7 @@
         <v>1500</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="60">
         <v>16500</v>
@@ -2567,7 +2563,7 @@
         <v>1500</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T7" s="60">
         <v>17500</v>
@@ -2599,7 +2595,7 @@
         <v>22156</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>109</v>
@@ -2613,7 +2609,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
@@ -2625,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N8" s="57">
         <v>9510</v>
@@ -2634,7 +2630,7 @@
         <v>1358.5714285714287</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="60">
         <v>9510</v>
@@ -2643,7 +2639,7 @@
         <v>1358.5714285714287</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T8" s="60">
         <v>13600</v>
@@ -2652,7 +2648,7 @@
         <v>1942.8571428571429</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W8" s="60">
         <v>16000</v>
@@ -2661,7 +2657,7 @@
         <v>2285.7142857142858</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z8" s="60">
         <v>16500</v>
@@ -2684,7 +2680,7 @@
         <v>22135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>115</v>
@@ -2710,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N9" s="57">
         <v>12500</v>
@@ -2719,7 +2715,7 @@
         <v>2500</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="60">
         <v>12500</v>
@@ -2728,7 +2724,7 @@
         <v>2500</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T9" s="60">
         <v>13500</v>
@@ -2775,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N10" s="57">
         <v>4300</v>
@@ -2784,7 +2780,7 @@
         <v>2150</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="60">
         <v>4300</v>
@@ -2793,7 +2789,7 @@
         <v>2150</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T10" s="60">
         <v>4500</v>
@@ -2844,7 +2840,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N11" s="57">
         <v>10000</v>
@@ -2853,7 +2849,7 @@
         <v>2500</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="60">
         <v>10000</v>
@@ -2899,7 +2895,7 @@
         <v>133</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2911,7 +2907,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N12" s="57">
         <v>18500</v>
@@ -2920,7 +2916,7 @@
         <v>1233.3333333333333</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="60">
         <v>18500</v>
@@ -2929,7 +2925,7 @@
         <v>1233.3333333333333</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T12" s="60">
         <v>20000</v>
@@ -2938,7 +2934,7 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W12" s="60">
         <v>26100</v>
@@ -2947,7 +2943,7 @@
         <v>1740</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Z12" s="60">
         <v>31500</v>
@@ -2970,7 +2966,7 @@
         <v>22214</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>117</v>
@@ -3001,7 +2997,7 @@
         <v>1800</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="60">
         <v>9000</v>
@@ -3010,7 +3006,7 @@
         <v>1800</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T13" s="60">
         <v>11500</v>
@@ -3019,7 +3015,7 @@
         <v>2300</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W13" s="60">
         <v>12500</v>
@@ -3045,7 +3041,7 @@
         <v>22291</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>118</v>
@@ -3067,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N14" s="57"/>
       <c r="O14" s="7"/>
@@ -3098,7 +3094,7 @@
         <v>22301</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>128</v>
@@ -3114,7 +3110,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J15" s="3">
         <v>5</v>
@@ -3155,7 +3151,7 @@
         <v>22312</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>119</v>
@@ -3186,7 +3182,7 @@
         <v>3000</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="60">
         <v>3000</v>
@@ -3195,7 +3191,7 @@
         <v>3000</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T16" s="60">
         <v>3500</v>
@@ -3224,7 +3220,7 @@
         <v>22319</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>120</v>
@@ -3246,7 +3242,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N17" s="57">
         <v>6400</v>
@@ -3255,7 +3251,7 @@
         <v>1600</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="60">
         <v>6400</v>
@@ -3264,7 +3260,7 @@
         <v>1600</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T17" s="60">
         <v>7000</v>
@@ -3273,7 +3269,7 @@
         <v>1750</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W17" s="60">
         <v>7800</v>
@@ -3299,7 +3295,7 @@
         <v>22198</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>126</v>
@@ -3332,7 +3328,7 @@
         <v>1600</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="60">
         <v>6400</v>
@@ -3341,7 +3337,7 @@
         <v>1600</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T18" s="60">
         <v>8800</v>
@@ -3350,7 +3346,7 @@
         <v>2200</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W18" s="60">
         <v>9900</v>
@@ -3376,7 +3372,7 @@
         <v>22355</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>124</v>
@@ -3407,7 +3403,7 @@
         <v>1500</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="60">
         <v>16500</v>
@@ -3416,7 +3412,7 @@
         <v>1500</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T19" s="60">
         <v>17200</v>
@@ -3425,7 +3421,7 @@
         <v>1563.6363636363637</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W19" s="60">
         <v>18300</v>
@@ -3434,7 +3430,7 @@
         <v>1663.6363636363637</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z19" s="60">
         <v>19000</v>
@@ -3443,7 +3439,7 @@
         <v>1727.2727272727273</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="AC19" s="60">
         <v>22500</v>
@@ -3463,7 +3459,7 @@
         <v>20328</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>125</v>
@@ -3494,7 +3490,7 @@
         <v>1280</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="60">
         <v>19200</v>
@@ -3503,7 +3499,7 @@
         <v>1280</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T20" s="60">
         <v>19500</v>
@@ -3512,7 +3508,7 @@
         <v>1300</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W20" s="60">
         <v>20000</v>
@@ -3521,7 +3517,7 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z20" s="60">
         <v>23000</v>
@@ -3530,7 +3526,7 @@
         <v>1533.3333333333333</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC20" s="60">
         <v>24000</v>
@@ -3550,7 +3546,7 @@
         <v>22337</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>129</v>
@@ -3575,7 +3571,7 @@
       <c r="N21" s="57"/>
       <c r="O21" s="7"/>
       <c r="P21" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="60">
         <v>26500</v>
@@ -3584,7 +3580,7 @@
         <v>1204.5454545454545</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T21" s="60">
         <v>28000</v>
@@ -3593,7 +3589,7 @@
         <v>1272.7272727272727</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W21" s="60">
         <v>28600</v>
@@ -3602,7 +3598,7 @@
         <v>1300</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z21" s="60">
         <v>31600</v>
@@ -3611,7 +3607,7 @@
         <v>1436.3636363636363</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC21" s="60">
         <v>36200</v>
@@ -3620,7 +3616,7 @@
         <v>1645.4545454545455</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF21" s="60">
         <v>38200</v>
@@ -3637,10 +3633,10 @@
         <v>22371</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E22" s="4">
         <v>44826</v>
@@ -3662,7 +3658,7 @@
       <c r="N22" s="57"/>
       <c r="O22" s="7"/>
       <c r="P22" s="3" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="60">
         <v>9500</v>
@@ -3671,7 +3667,7 @@
         <v>1055.5555555555557</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T22" s="60">
         <v>11700</v>
@@ -3680,7 +3676,7 @@
         <v>1300</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W22" s="60">
         <v>11800</v>
@@ -3689,7 +3685,7 @@
         <v>1311.1111111111111</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z22" s="60">
         <v>12600</v>
@@ -3698,7 +3694,7 @@
         <v>1400</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AC22" s="60">
         <v>16100</v>
@@ -3718,19 +3714,19 @@
         <v>22366</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="4">
         <v>44833</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="3"/>
@@ -3747,7 +3743,7 @@
       <c r="N23" s="57"/>
       <c r="O23" s="7"/>
       <c r="P23" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="60">
         <v>9800</v>
@@ -3756,7 +3752,7 @@
         <v>1400</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T23" s="60">
         <v>10500</v>
@@ -3765,7 +3761,7 @@
         <v>1500</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W23" s="60">
         <v>12500</v>
@@ -3774,7 +3770,7 @@
         <v>1785.7142857142858</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z23" s="60">
         <v>15000</v>
@@ -3783,13 +3779,13 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC23" s="60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="60"/>
@@ -3803,10 +3799,10 @@
         <v>22388</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="4">
         <v>44845</v>
@@ -3824,7 +3820,7 @@
       <c r="N24" s="57"/>
       <c r="O24" s="7"/>
       <c r="P24" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="60">
         <v>12000</v>
@@ -3833,7 +3829,7 @@
         <v>1000</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T24" s="60">
         <v>13000</v>
@@ -3842,7 +3838,7 @@
         <v>1083.3333333333333</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W24" s="60">
         <v>13700</v>
@@ -3851,7 +3847,7 @@
         <v>1141.6666666666667</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z24" s="60">
         <v>16500</v>
@@ -3860,7 +3856,7 @@
         <v>1375</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC24" s="60">
         <v>18800</v>
@@ -3869,7 +3865,7 @@
         <v>1566.6666666666667</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF24" s="60">
         <v>21000</v>
@@ -3886,10 +3882,10 @@
         <v>22306</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="4">
         <v>44854</v>
@@ -3907,7 +3903,7 @@
       <c r="N25" s="57"/>
       <c r="O25" s="7"/>
       <c r="P25" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q25" s="60">
         <v>8400</v>
@@ -3916,7 +3912,7 @@
         <v>1200</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T25" s="60">
         <v>8700</v>
@@ -3925,7 +3921,7 @@
         <v>1242.8571428571429</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W25" s="60">
         <v>9500</v>
@@ -3934,7 +3930,7 @@
         <v>1357.1428571428571</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z25" s="60">
         <v>11900</v>
@@ -3957,10 +3953,10 @@
         <v>22405</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E26" s="4">
         <v>44862</v>
@@ -3980,7 +3976,7 @@
       <c r="N26" s="57"/>
       <c r="O26" s="7"/>
       <c r="P26" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q26" s="60">
         <v>7000</v>
@@ -3989,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T26" s="60">
         <v>8400</v>
@@ -3998,7 +3994,7 @@
         <v>1200</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W26" s="60">
         <v>9000</v>
@@ -4007,7 +4003,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z26" s="60">
         <v>9500</v>
@@ -4030,10 +4026,10 @@
         <v>22169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="4">
         <v>44869</v>
@@ -4051,7 +4047,7 @@
       <c r="N27" s="57"/>
       <c r="O27" s="7"/>
       <c r="P27" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q27" s="60">
         <v>18900</v>
@@ -4060,7 +4056,7 @@
         <v>1575</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T27" s="60">
         <v>21000</v>
@@ -4089,10 +4085,10 @@
         <v>22424</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" s="4">
         <v>44882</v>
@@ -4134,10 +4130,10 @@
         <v>22423</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E29" s="4">
         <v>44882</v>
@@ -4183,7 +4179,7 @@
         <v>20219</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>70</v>
@@ -4234,7 +4230,7 @@
         <v>21018</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>71</v>
@@ -4258,7 +4254,7 @@
         <v>16</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N31" s="57">
         <v>16000</v>
@@ -4267,7 +4263,7 @@
         <v>1000</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="60">
         <v>16000</v>
@@ -4276,7 +4272,7 @@
         <v>1000</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T31" s="60">
         <v>22000</v>
@@ -4285,7 +4281,7 @@
         <v>1375</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W31" s="67">
         <v>28000</v>
@@ -4311,7 +4307,7 @@
         <v>20432</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>72</v>
@@ -4335,7 +4331,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N32" s="57">
         <v>6500</v>
@@ -4344,7 +4340,7 @@
         <v>1300</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q32" s="60">
         <v>6500</v>
@@ -4353,7 +4349,7 @@
         <v>1300</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T32" s="60">
         <v>6900</v>
@@ -4362,7 +4358,7 @@
         <v>1380</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W32" s="67">
         <v>8600</v>
@@ -4388,7 +4384,7 @@
         <v>21062</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>73</v>
@@ -4412,7 +4408,7 @@
         <v>21</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N33" s="57">
         <v>25000</v>
@@ -4421,7 +4417,7 @@
         <v>1190.4761904761904</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="60">
         <v>25000</v>
@@ -4430,7 +4426,7 @@
         <v>1190.4761904761904</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T33" s="60">
         <v>34000</v>
@@ -4439,7 +4435,7 @@
         <v>1619.047619047619</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W33" s="67">
         <v>38000</v>
@@ -4465,7 +4461,7 @@
         <v>21071</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>74</v>
@@ -4489,7 +4485,7 @@
         <v>7</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N34" s="57">
         <v>8400</v>
@@ -4498,7 +4494,7 @@
         <v>1200</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="60">
         <v>8400</v>
@@ -4507,7 +4503,7 @@
         <v>1200</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T34" s="60">
         <v>13600</v>
@@ -4516,7 +4512,7 @@
         <v>1942.8571428571429</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W34" s="67">
         <v>0</v>
@@ -4542,7 +4538,7 @@
         <v>21063</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>75</v>
@@ -4566,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N35" s="57">
         <v>11760</v>
@@ -4575,7 +4571,7 @@
         <v>980</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="60">
         <v>11760</v>
@@ -4584,7 +4580,7 @@
         <v>980</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T35" s="60">
         <v>14500</v>
@@ -4593,7 +4589,7 @@
         <v>1208.3333333333333</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W35" s="67" t="s">
         <v>121</v>
@@ -4619,7 +4615,7 @@
         <v>21064</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>76</v>
@@ -4643,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N36" s="57">
         <v>45200</v>
@@ -4652,7 +4648,7 @@
         <v>1808</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="60">
         <v>32500</v>
@@ -4661,7 +4657,7 @@
         <v>1300</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T36" s="60">
         <v>45200</v>
@@ -4670,7 +4666,7 @@
         <v>1808</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W36" s="67">
         <v>47000</v>
@@ -4696,7 +4692,7 @@
         <v>21019</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>77</v>
@@ -4720,7 +4716,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N37" s="57">
         <v>11700</v>
@@ -4729,7 +4725,7 @@
         <v>1300</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="60">
         <v>11700</v>
@@ -4738,7 +4734,7 @@
         <v>1300</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T37" s="60">
         <v>15000</v>
@@ -4747,7 +4743,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W37" s="67">
         <v>18200</v>
@@ -4791,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N38" s="57">
         <v>3740</v>
@@ -4800,7 +4796,7 @@
         <v>1870</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="60">
         <v>3740</v>
@@ -4809,7 +4805,7 @@
         <v>1870</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T38" s="60">
         <v>4800</v>
@@ -4854,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N39" s="57">
         <v>3300</v>
@@ -4863,7 +4859,7 @@
         <v>1650</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q39" s="60">
         <v>3300</v>
@@ -4872,7 +4868,7 @@
         <v>1650</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T39" s="60">
         <v>3400</v>
@@ -4921,7 +4917,7 @@
         <v>121</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N40" s="57">
         <v>6400</v>
@@ -4930,7 +4926,7 @@
         <v>121</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q40" s="60">
         <v>6400</v>
@@ -4939,7 +4935,7 @@
         <v>121</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T40" s="60">
         <v>7200</v>
@@ -4988,7 +4984,7 @@
         <v>17</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N41" s="57">
         <v>16320</v>
@@ -4997,7 +4993,7 @@
         <v>960</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="60">
         <v>16320</v>
@@ -5006,7 +5002,7 @@
         <v>960</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T41" s="60">
         <v>20000</v>
@@ -5015,7 +5011,7 @@
         <v>1176.4705882352941</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W41" s="67">
         <v>25000</v>
@@ -5041,7 +5037,7 @@
         <v>21190</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>81</v>
@@ -5065,7 +5061,7 @@
         <v>28</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N42" s="57">
         <v>30000</v>
@@ -5074,7 +5070,7 @@
         <v>1071.4285714285713</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="60">
         <v>30000</v>
@@ -5083,7 +5079,7 @@
         <v>1071.4285714285713</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T42" s="60">
         <v>31000</v>
@@ -5092,7 +5088,7 @@
         <v>1107.1428571428571</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W42" s="67">
         <v>32400</v>
@@ -5101,7 +5097,7 @@
         <v>1157.1428571428571</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Z42" s="60">
         <v>50900</v>
@@ -5144,7 +5140,7 @@
         <v>11</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N43" s="57">
         <v>13000</v>
@@ -5153,7 +5149,7 @@
         <v>1181.8181818181818</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q43" s="60">
         <v>13000</v>
@@ -5162,7 +5158,7 @@
         <v>1181.8181818181818</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T43" s="60">
         <v>13000</v>
@@ -5171,7 +5167,7 @@
         <v>1181.8181818181818</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="W43" s="67" t="s">
         <v>121</v>
@@ -5197,7 +5193,7 @@
         <v>21184</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>83</v>
@@ -5248,7 +5244,7 @@
         <v>21210</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>84</v>
@@ -5362,7 +5358,7 @@
         <v>19</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N47" s="57">
         <v>19000</v>
@@ -5371,7 +5367,7 @@
         <v>1000</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q47" s="60">
         <v>19000</v>
@@ -5380,7 +5376,7 @@
         <v>1000</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T47" s="60">
         <v>23900</v>
@@ -5389,7 +5385,7 @@
         <v>1257.8947368421052</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W47" s="67">
         <v>32000</v>
@@ -5398,7 +5394,7 @@
         <v>1684.2105263157894</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z47" s="60">
         <v>36000</v>
@@ -5421,7 +5417,7 @@
         <v>21289</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>86</v>
@@ -5445,7 +5441,7 @@
         <v>8</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N48" s="57">
         <v>8800</v>
@@ -5454,7 +5450,7 @@
         <v>1100</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q48" s="60">
         <v>8800</v>
@@ -5463,7 +5459,7 @@
         <v>1100</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T48" s="60">
         <v>11900</v>
@@ -5472,7 +5468,7 @@
         <v>1487.5</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W48" s="67">
         <v>15900</v>
@@ -5516,7 +5512,7 @@
         <v>121</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N49" s="57">
         <v>4300</v>
@@ -5525,7 +5521,7 @@
         <v>121</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q49" s="60">
         <v>4300</v>
@@ -5534,7 +5530,7 @@
         <v>121</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T49" s="60">
         <v>4500</v>
@@ -5563,7 +5559,7 @@
         <v>21315</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>88</v>
@@ -5614,7 +5610,7 @@
         <v>20229</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>89</v>
@@ -5638,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N51" s="57">
         <v>7500</v>
@@ -5647,7 +5643,7 @@
         <v>1500</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q51" s="60">
         <v>7500</v>
@@ -5656,7 +5652,7 @@
         <v>1500</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T51" s="60">
         <v>8100</v>
@@ -5665,7 +5661,7 @@
         <v>1620</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W51" s="67">
         <v>14200</v>
@@ -5674,7 +5670,7 @@
         <v>2840</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Z51" s="60">
         <v>15000</v>
@@ -5683,7 +5679,7 @@
         <v>3000</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AC51" s="60">
         <v>16500</v>
@@ -5692,7 +5688,7 @@
         <v>3300</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF51" s="62">
         <v>17200</v>
@@ -5709,7 +5705,7 @@
         <v>21363</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>90</v>
@@ -5733,7 +5729,7 @@
         <v>8</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N52" s="57">
         <v>10500</v>
@@ -5742,7 +5738,7 @@
         <v>1312.5</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q52" s="60">
         <v>10500</v>
@@ -5751,7 +5747,7 @@
         <v>1312.5</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T52" s="60">
         <v>11800</v>
@@ -5760,7 +5756,7 @@
         <v>1475</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W52" s="67">
         <v>14000</v>
@@ -5853,7 +5849,7 @@
         <v>121</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N54" s="57">
         <v>4800</v>
@@ -5862,7 +5858,7 @@
         <v>121</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q54" s="60">
         <v>4800</v>
@@ -5871,7 +5867,7 @@
         <v>121</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T54" s="60">
         <v>6100</v>
@@ -5900,7 +5896,7 @@
         <v>21423</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>93</v>
@@ -5969,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N56" s="57">
         <v>1400</v>
@@ -5978,7 +5974,7 @@
         <v>233.33333333333334</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q56" s="61">
         <v>8400</v>
@@ -5987,7 +5983,7 @@
         <v>1400</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T56" s="61">
         <v>9000</v>
@@ -5996,7 +5992,7 @@
         <v>1500</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W56" s="68">
         <v>12900</v>
@@ -6022,7 +6018,7 @@
         <v>21420</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>94</v>
@@ -6046,7 +6042,7 @@
         <v>10</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N57" s="57">
         <v>10000</v>
@@ -6055,7 +6051,7 @@
         <v>1000</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q57" s="60">
         <v>10000</v>
@@ -6064,7 +6060,7 @@
         <v>1000</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T57" s="60">
         <v>14000</v>
@@ -6093,7 +6089,7 @@
         <v>21415</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>95</v>
@@ -6117,7 +6113,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N58" s="57">
         <v>12600</v>
@@ -6126,7 +6122,7 @@
         <v>1400</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q58" s="60">
         <v>12600</v>
@@ -6135,7 +6131,7 @@
         <v>1400</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T58" s="60">
         <v>16500</v>
@@ -6164,7 +6160,7 @@
         <v>21332</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>96</v>
@@ -6188,7 +6184,7 @@
         <v>121</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N59" s="57">
         <v>12000</v>
@@ -6197,7 +6193,7 @@
         <v>121</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q59" s="60">
         <v>12000</v>
@@ -6206,7 +6202,7 @@
         <v>121</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T59" s="60">
         <v>13000</v>
@@ -6235,7 +6231,7 @@
         <v>20133</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>97</v>
@@ -6286,7 +6282,7 @@
         <v>21478</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>98</v>
@@ -6339,7 +6335,7 @@
         <v>21506</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>99</v>
@@ -6363,7 +6359,7 @@
         <v>5</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N62" s="57">
         <v>5600</v>
@@ -6372,7 +6368,7 @@
         <v>1120</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q62" s="60">
         <v>5600</v>
@@ -6381,7 +6377,7 @@
         <v>1120</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T62" s="60">
         <v>7900</v>
@@ -6390,7 +6386,7 @@
         <v>1580</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W62" s="67">
         <v>8800</v>
@@ -6416,7 +6412,7 @@
         <v>21496</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>100</v>
@@ -6557,7 +6553,7 @@
         <v>20018</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>48</v>
@@ -6581,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N66" s="57">
         <v>4100</v>
@@ -6590,7 +6586,7 @@
         <v>2050</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q66" s="60">
         <v>4100</v>
@@ -6599,7 +6595,7 @@
         <v>2050</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T66" s="60">
         <v>5900</v>
@@ -6626,7 +6622,7 @@
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>47</v>
@@ -6650,7 +6646,7 @@
         <v>18</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N67" s="57">
         <v>25000</v>
@@ -6659,7 +6655,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q67" s="60">
         <v>25000</v>
@@ -6668,7 +6664,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T67" s="60">
         <v>34200</v>
@@ -6677,7 +6673,7 @@
         <v>1900</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W67" s="60">
         <v>35000</v>
@@ -6703,7 +6699,7 @@
         <v>20047</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>49</v>
@@ -6727,7 +6723,7 @@
         <v>10</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N68" s="57">
         <v>21500</v>
@@ -6736,7 +6732,7 @@
         <v>2150</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q68" s="60">
         <v>17000</v>
@@ -6745,7 +6741,7 @@
         <v>1700</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T68" s="60">
         <v>19700</v>
@@ -6754,7 +6750,7 @@
         <v>1970</v>
       </c>
       <c r="V68" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W68" s="60">
         <v>21500</v>
@@ -6780,7 +6776,7 @@
         <v>20083</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>50</v>
@@ -6804,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N69" s="57">
         <v>7000</v>
@@ -6813,7 +6809,7 @@
         <v>1400</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q69" s="60">
         <v>7000</v>
@@ -6822,7 +6818,7 @@
         <v>1400</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T69" s="60">
         <v>11000</v>
@@ -6851,7 +6847,7 @@
         <v>20013</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>51</v>
@@ -6875,7 +6871,7 @@
         <v>18</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N70" s="57">
         <v>23400</v>
@@ -6884,7 +6880,7 @@
         <v>1300</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q70" s="60">
         <v>23400</v>
@@ -6893,7 +6889,7 @@
         <v>1300</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T70" s="60">
         <v>31000</v>
@@ -6922,7 +6918,7 @@
         <v>20119</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>52</v>
@@ -6946,7 +6942,7 @@
         <v>12</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N71" s="57">
         <v>16800</v>
@@ -6955,7 +6951,7 @@
         <v>1400</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q71" s="60">
         <v>16800</v>
@@ -6964,7 +6960,7 @@
         <v>1400</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T71" s="60">
         <v>19900</v>
@@ -6993,7 +6989,7 @@
         <v>19210</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>53</v>
@@ -7046,7 +7042,7 @@
         <v>20194</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>54</v>
@@ -7115,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N74" s="57">
         <v>15000</v>
@@ -7124,7 +7120,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q74" s="60">
         <v>13500</v>
@@ -7133,7 +7129,7 @@
         <v>1500</v>
       </c>
       <c r="S74" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T74" s="60">
         <v>15000</v>
@@ -7142,7 +7138,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W74" s="60">
         <v>18400</v>
@@ -7168,7 +7164,7 @@
         <v>20209</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>55</v>
@@ -7192,7 +7188,7 @@
         <v>9</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N75" s="57">
         <v>12500</v>
@@ -7201,7 +7197,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q75" s="60">
         <v>12500</v>
@@ -7210,7 +7206,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T75" s="60">
         <v>12600</v>
@@ -7219,7 +7215,7 @@
         <v>1400</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W75" s="60">
         <v>13500</v>
@@ -7245,7 +7241,7 @@
         <v>20213</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>56</v>
@@ -7269,7 +7265,7 @@
         <v>11</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N76" s="57">
         <v>10500</v>
@@ -7278,7 +7274,7 @@
         <v>954.5454545454545</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q76" s="60">
         <v>10500</v>
@@ -7287,7 +7283,7 @@
         <v>954.5454545454545</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T76" s="60">
         <v>14900</v>
@@ -7316,7 +7312,7 @@
         <v>20043</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>57</v>
@@ -7340,7 +7336,7 @@
         <v>17</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N77" s="57">
         <v>20000</v>
@@ -7349,7 +7345,7 @@
         <v>1176.4705882352941</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q77" s="60">
         <v>20000</v>
@@ -7358,7 +7354,7 @@
         <v>1176.4705882352941</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T77" s="60">
         <v>22000</v>
@@ -7387,7 +7383,7 @@
         <v>20245</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>58</v>
@@ -7456,7 +7452,7 @@
         <v>121</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N79" s="57">
         <v>5200</v>
@@ -7465,7 +7461,7 @@
         <v>121</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q79" s="60">
         <v>4300</v>
@@ -7474,7 +7470,7 @@
         <v>121</v>
       </c>
       <c r="S79" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T79" s="60">
         <v>5200</v>
@@ -7503,7 +7499,7 @@
         <v>20248</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>59</v>
@@ -7527,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N80" s="57">
         <v>4100</v>
@@ -7536,7 +7532,7 @@
         <v>2050</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q80" s="60">
         <v>4100</v>
@@ -7545,7 +7541,7 @@
         <v>2050</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T80" s="60">
         <v>4700</v>
@@ -7554,7 +7550,7 @@
         <v>2350</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W80" s="60">
         <v>7400</v>
@@ -7580,7 +7576,7 @@
         <v>20281</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>60</v>
@@ -7649,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N82" s="57">
         <v>5600</v>
@@ -7658,7 +7654,7 @@
         <v>1400</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q82" s="60">
         <v>5600</v>
@@ -7667,7 +7663,7 @@
         <v>1400</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T82" s="60">
         <v>4300</v>
@@ -7676,7 +7672,7 @@
         <v>1075</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W82" s="60">
         <v>4700</v>
@@ -7702,7 +7698,7 @@
         <v>20296</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>61</v>
@@ -7726,7 +7722,7 @@
         <v>6</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N83" s="57">
         <v>5600</v>
@@ -7735,7 +7731,7 @@
         <v>933.33333333333337</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q83" s="60">
         <v>5600</v>
@@ -7744,7 +7740,7 @@
         <v>933.33333333333337</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T83" s="60">
         <v>6500</v>
@@ -7773,7 +7769,7 @@
         <v>20300</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>62</v>
@@ -7842,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N85" s="57">
         <v>6000</v>
@@ -7851,7 +7847,7 @@
         <v>1500</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q85" s="60">
         <v>6000</v>
@@ -7860,7 +7856,7 @@
         <v>1500</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T85" s="60">
         <v>6500</v>
@@ -7961,7 +7957,7 @@
         <v>1400</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q87" s="60">
         <v>7000</v>
@@ -7970,7 +7966,7 @@
         <v>1400</v>
       </c>
       <c r="S87" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T87" s="60">
         <v>7000</v>
@@ -7979,7 +7975,7 @@
         <v>1400</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W87" s="60">
         <v>7500</v>
@@ -7988,7 +7984,7 @@
         <v>1500</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Z87" s="60">
         <v>9000</v>
@@ -8011,7 +8007,7 @@
         <v>20362</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>65</v>
@@ -8035,7 +8031,7 @@
         <v>7</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N88" s="57">
         <v>8820</v>
@@ -8044,7 +8040,7 @@
         <v>1260</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q88" s="60">
         <v>8820</v>
@@ -8053,7 +8049,7 @@
         <v>1260</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T88" s="60">
         <v>9000</v>
@@ -8062,7 +8058,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W88" s="60">
         <v>9100</v>
@@ -8071,7 +8067,7 @@
         <v>1300</v>
       </c>
       <c r="Y88" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Z88" s="60">
         <v>15000</v>
@@ -8114,7 +8110,7 @@
         <v>121</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N89" s="57">
         <v>9500</v>
@@ -8123,7 +8119,7 @@
         <v>121</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q89" s="60">
         <v>9500</v>
@@ -8132,7 +8128,7 @@
         <v>121</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T89" s="60">
         <v>9800</v>
@@ -8161,7 +8157,7 @@
         <v>20425</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>67</v>
@@ -8185,7 +8181,7 @@
         <v>17</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N90" s="57">
         <v>10500</v>
@@ -8194,7 +8190,7 @@
         <v>617.64705882352939</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q90" s="60">
         <v>10500</v>
@@ -8203,7 +8199,7 @@
         <v>617.64705882352939</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T90" s="60">
         <v>20900</v>
@@ -8212,7 +8208,7 @@
         <v>1229.4117647058824</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W90" s="60">
         <v>33100</v>
@@ -8238,7 +8234,7 @@
         <v>20448</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>68</v>
@@ -8262,7 +8258,7 @@
         <v>7</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N91" s="57">
         <v>9000</v>
@@ -8271,7 +8267,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q91" s="60">
         <v>9000</v>
@@ -8280,7 +8276,7 @@
         <v>1285.7142857142858</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T91" s="60">
         <v>10700</v>
@@ -8329,7 +8325,7 @@
         <v>18</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N92" s="57">
         <v>20000</v>
@@ -8338,7 +8334,7 @@
         <v>1111.1111111111111</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q92" s="60">
         <v>18000</v>
@@ -8347,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T92" s="60">
         <v>20000</v>
@@ -8376,7 +8372,7 @@
         <v>19024</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>32</v>
@@ -8400,7 +8396,7 @@
         <v>7</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N93" s="57">
         <v>9100</v>
@@ -8409,7 +8405,7 @@
         <v>1300</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q93" s="60">
         <v>9100</v>
@@ -8418,7 +8414,7 @@
         <v>1300</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T93" s="60">
         <v>11800</v>
@@ -8494,7 +8490,7 @@
         <v>19025</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>35</v>
@@ -8545,7 +8541,7 @@
         <v>19028</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>24</v>
@@ -8569,7 +8565,7 @@
         <v>11</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N96" s="57">
         <v>14300</v>
@@ -8578,7 +8574,7 @@
         <v>1300</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q96" s="60">
         <v>14300</v>
@@ -8587,7 +8583,7 @@
         <v>1300</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T96" s="60">
         <v>18500</v>
@@ -8616,7 +8612,7 @@
         <v>19046</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>25</v>
@@ -8640,7 +8636,7 @@
         <v>12</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N97" s="57">
         <v>20200</v>
@@ -8649,7 +8645,7 @@
         <v>1683.3333333333333</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q97" s="60">
         <v>20200</v>
@@ -8658,7 +8654,7 @@
         <v>1683.3333333333333</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T97" s="60">
         <v>21200</v>
@@ -8687,7 +8683,7 @@
         <v>19081</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>26</v>
@@ -8711,7 +8707,7 @@
         <v>14</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N98" s="57">
         <v>18200</v>
@@ -8720,7 +8716,7 @@
         <v>1300</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q98" s="60">
         <v>18200</v>
@@ -8729,7 +8725,7 @@
         <v>1300</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T98" s="60">
         <v>20000</v>
@@ -8738,7 +8734,7 @@
         <v>1428.5714285714287</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W98" s="62">
         <v>20800</v>
@@ -8747,7 +8743,7 @@
         <v>1485.7142857142858</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z98" s="62">
         <v>28200</v>
@@ -8756,7 +8752,7 @@
         <v>2014.2857142857142</v>
       </c>
       <c r="AB98" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="AC98" s="62">
         <v>29300</v>
@@ -8765,7 +8761,7 @@
         <v>2092.8571428571427</v>
       </c>
       <c r="AE98" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF98" s="62">
         <v>30200</v>
@@ -8782,7 +8778,7 @@
         <v>19063</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>30</v>
@@ -8806,7 +8802,7 @@
         <v>10</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N99" s="57">
         <v>12000</v>
@@ -8815,7 +8811,7 @@
         <v>1200</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q99" s="60">
         <v>12000</v>
@@ -8824,7 +8820,7 @@
         <v>1200</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T99" s="60">
         <v>16800</v>
@@ -8833,7 +8829,7 @@
         <v>1680</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W99" s="62">
         <v>20000</v>
@@ -8859,7 +8855,7 @@
         <v>19107</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -8883,7 +8879,7 @@
         <v>31</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N100" s="57">
         <v>39800</v>
@@ -8892,7 +8888,7 @@
         <v>1283.8709677419354</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q100" s="60">
         <v>39800</v>
@@ -8901,7 +8897,7 @@
         <v>1283.8709677419354</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T100" s="60">
         <v>47000</v>
@@ -8910,7 +8906,7 @@
         <v>1516.1290322580646</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="W100" s="62">
         <v>49000</v>
@@ -8936,7 +8932,7 @@
         <v>19100</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>36</v>
@@ -8960,7 +8956,7 @@
         <v>2</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N101" s="57">
         <v>5400</v>
@@ -8969,7 +8965,7 @@
         <v>2700</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q101" s="60">
         <v>4000</v>
@@ -8978,7 +8974,7 @@
         <v>2000</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T101" s="60">
         <v>5400</v>
@@ -9007,7 +9003,7 @@
         <v>19101</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>37</v>
@@ -9029,7 +9025,7 @@
         <v>9</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N102" s="57">
         <v>11700</v>
@@ -9038,7 +9034,7 @@
         <v>1300</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q102" s="60">
         <v>11700</v>
@@ -9047,7 +9043,7 @@
         <v>1300</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T102" s="60">
         <v>17000</v>
@@ -9076,7 +9072,7 @@
         <v>19112</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>38</v>
@@ -9127,7 +9123,7 @@
         <v>19113</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>39</v>
@@ -9151,7 +9147,7 @@
         <v>15</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N104" s="57">
         <v>18000</v>
@@ -9160,7 +9156,7 @@
         <v>1200</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q104" s="60">
         <v>18000</v>
@@ -9169,7 +9165,7 @@
         <v>1200</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T104" s="60">
         <v>24800</v>
@@ -9198,7 +9194,7 @@
         <v>19119</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>23</v>
@@ -9222,7 +9218,7 @@
         <v>10</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N105" s="57">
         <v>18900</v>
@@ -9231,7 +9227,7 @@
         <v>1890</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q105" s="60">
         <v>18900</v>
@@ -9240,7 +9236,7 @@
         <v>1890</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T105" s="60">
         <v>19800</v>
@@ -9269,7 +9265,7 @@
         <v>19137</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>40</v>
@@ -9293,7 +9289,7 @@
         <v>17</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N106" s="57">
         <v>22100</v>
@@ -9302,7 +9298,7 @@
         <v>1300</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q106" s="60">
         <v>22100</v>
@@ -9311,7 +9307,7 @@
         <v>1300</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T106" s="60">
         <v>28300</v>
@@ -9320,7 +9316,7 @@
         <v>1664.7058823529412</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W106" s="62">
         <v>30000</v>
@@ -9346,7 +9342,7 @@
         <v>19127</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>41</v>
@@ -9370,7 +9366,7 @@
         <v>13</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N107" s="57">
         <v>12000</v>
@@ -9379,7 +9375,7 @@
         <v>923.07692307692309</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q107" s="60">
         <v>12000</v>
@@ -9388,7 +9384,7 @@
         <v>923.07692307692309</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T107" s="60">
         <v>16300</v>
@@ -9397,7 +9393,7 @@
         <v>1253.8461538461538</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W107" s="62">
         <v>18500</v>
@@ -9423,7 +9419,7 @@
         <v>19128</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>42</v>
@@ -9447,7 +9443,7 @@
         <v>23</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N108" s="57">
         <v>24500</v>
@@ -9456,7 +9452,7 @@
         <v>1065.2173913043478</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q108" s="60">
         <v>21000</v>
@@ -9465,7 +9461,7 @@
         <v>913.04347826086962</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T108" s="60">
         <v>24500</v>
@@ -9494,7 +9490,7 @@
         <v>19258</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>43</v>
@@ -9561,7 +9557,7 @@
         <v>10</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N110" s="57">
         <v>14000</v>
@@ -9570,7 +9566,7 @@
         <v>1400</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q110" s="60">
         <v>14000</v>
@@ -9579,7 +9575,7 @@
         <v>1400</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T110" s="60">
         <v>20300</v>
@@ -9624,7 +9620,7 @@
         <v>10</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N111" s="57">
         <v>14000</v>
@@ -9633,7 +9629,7 @@
         <v>1400</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q111" s="60">
         <v>14000</v>
@@ -9642,7 +9638,7 @@
         <v>1400</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T111" s="60">
         <v>17200</v>
@@ -9671,7 +9667,7 @@
         <v>19200</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>44</v>
@@ -9693,7 +9689,7 @@
         <v>4</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N112" s="57">
         <v>4400</v>
@@ -9702,7 +9698,7 @@
         <v>1100</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q112" s="60">
         <v>4400</v>
@@ -9711,7 +9707,7 @@
         <v>1100</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T112" s="60">
         <v>8500</v>
@@ -9740,7 +9736,7 @@
         <v>19196</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>22</v>
@@ -9762,7 +9758,7 @@
         <v>19</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N113" s="57">
         <v>28500</v>
@@ -9771,7 +9767,7 @@
         <v>1500</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q113" s="60">
         <v>28500</v>
@@ -9780,7 +9776,7 @@
         <v>1500</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T113" s="60">
         <v>40200</v>
@@ -9895,7 +9891,7 @@
         <v>19190</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>45</v>
@@ -9946,7 +9942,7 @@
         <v>19252</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>21</v>
@@ -9968,7 +9964,7 @@
         <v>10</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N117" s="57">
         <v>15000</v>
@@ -9977,7 +9973,7 @@
         <v>1500</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q117" s="60">
         <v>15000</v>
@@ -9986,7 +9982,7 @@
         <v>1500</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="T117" s="60">
         <v>17300</v>
@@ -9995,7 +9991,7 @@
         <v>1730</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W117" s="62">
         <v>19000</v>
@@ -10021,7 +10017,7 @@
         <v>20001</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>47</v>
@@ -10045,7 +10041,7 @@
         <v>18</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N118" s="57">
         <v>16900</v>
@@ -10054,7 +10050,7 @@
         <v>938.88888888888891</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q118" s="60">
         <v>16900</v>
@@ -10063,7 +10059,7 @@
         <v>938.88888888888891</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T118" s="60">
         <v>18200</v>
@@ -10072,7 +10068,7 @@
         <v>1011.1111111111111</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W118" s="62">
         <v>38000</v>
@@ -10429,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N126" s="57">
         <v>3500</v>
@@ -10438,7 +10434,7 @@
         <v>3500</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q126" s="60">
         <v>3500</v>
@@ -10447,7 +10443,7 @@
         <v>3500</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T126" s="62">
         <v>5380</v>
@@ -10476,7 +10472,7 @@
         <v>18244</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>13</v>
@@ -10527,7 +10523,7 @@
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="4"/>
@@ -10578,7 +10574,7 @@
         <v>18278</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>18</v>
@@ -10602,7 +10598,7 @@
         <v>18</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="N129" s="57">
         <v>29900</v>
@@ -10611,7 +10607,7 @@
         <v>1661.1111111111111</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q129" s="60">
         <v>29900</v>
@@ -10620,7 +10616,7 @@
         <v>1661.1111111111111</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T129" s="62">
         <v>31000</v>
@@ -10667,7 +10663,7 @@
         <v>121</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N130" s="57">
         <v>7490</v>
@@ -10676,7 +10672,7 @@
         <v>121</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q130" s="60">
         <v>7490</v>
@@ -10685,7 +10681,7 @@
         <v>121</v>
       </c>
       <c r="S130" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T130" s="62">
         <v>24500</v>
